--- a/output/clean_data/stock_assessments_w_unassessed.xlsx
+++ b/output/clean_data/stock_assessments_w_unassessed.xlsx
@@ -13994,7 +13994,7 @@
         <v>2177</v>
       </c>
       <c r="F181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G181" t="s">
         <v>2965</v>
@@ -14124,7 +14124,7 @@
         <v>2182</v>
       </c>
       <c r="F186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G186" t="s">
         <v>2965</v>
@@ -14150,7 +14150,7 @@
         <v>2183</v>
       </c>
       <c r="F187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G187" t="s">
         <v>2965</v>
@@ -14176,7 +14176,7 @@
         <v>2184</v>
       </c>
       <c r="F188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G188" t="s">
         <v>2965</v>
@@ -14280,7 +14280,7 @@
         <v>2188</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G192" t="s">
         <v>2964</v>
@@ -14306,7 +14306,7 @@
         <v>2189</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G193" t="s">
         <v>2964</v>
@@ -14332,7 +14332,7 @@
         <v>2190</v>
       </c>
       <c r="F194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G194" t="s">
         <v>2966</v>
@@ -14358,7 +14358,7 @@
         <v>2191</v>
       </c>
       <c r="F195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G195" t="s">
         <v>2965</v>
@@ -14384,7 +14384,7 @@
         <v>2192</v>
       </c>
       <c r="F196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G196" t="s">
         <v>2962</v>
@@ -14410,7 +14410,7 @@
         <v>2193</v>
       </c>
       <c r="F197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G197" t="s">
         <v>2962</v>
@@ -14462,7 +14462,7 @@
         <v>2194</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199" t="s">
         <v>2964</v>
@@ -14488,7 +14488,7 @@
         <v>2195</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G200" t="s">
         <v>2964</v>
@@ -14514,7 +14514,7 @@
         <v>2196</v>
       </c>
       <c r="F201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G201" t="s">
         <v>2964</v>
@@ -14618,7 +14618,7 @@
         <v>2200</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G205" t="s">
         <v>2964</v>
@@ -14800,7 +14800,7 @@
         <v>2207</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G212" t="s">
         <v>2963</v>
@@ -14852,7 +14852,7 @@
         <v>2209</v>
       </c>
       <c r="F214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G214" t="s">
         <v>2962</v>
@@ -14878,7 +14878,7 @@
         <v>2210</v>
       </c>
       <c r="F215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G215" t="s">
         <v>2962</v>
@@ -14930,7 +14930,7 @@
         <v>2212</v>
       </c>
       <c r="F217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G217" t="s">
         <v>2962</v>
@@ -14956,7 +14956,7 @@
         <v>2213</v>
       </c>
       <c r="F218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G218" t="s">
         <v>2962</v>
@@ -15008,7 +15008,7 @@
         <v>2215</v>
       </c>
       <c r="F220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G220" t="s">
         <v>2962</v>
@@ -15034,7 +15034,7 @@
         <v>2216</v>
       </c>
       <c r="F221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G221" t="s">
         <v>2962</v>
@@ -15060,7 +15060,7 @@
         <v>2217</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G222" t="s">
         <v>2964</v>
@@ -15164,7 +15164,7 @@
         <v>2220</v>
       </c>
       <c r="F226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G226" t="s">
         <v>2962</v>
@@ -15216,7 +15216,7 @@
         <v>2221</v>
       </c>
       <c r="F228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G228" t="s">
         <v>2964</v>
@@ -15346,7 +15346,7 @@
         <v>2225</v>
       </c>
       <c r="F233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G233" t="s">
         <v>2963</v>
@@ -15372,7 +15372,7 @@
         <v>2226</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G234" t="s">
         <v>2963</v>
@@ -15398,7 +15398,7 @@
         <v>2227</v>
       </c>
       <c r="F235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G235" t="s">
         <v>2963</v>
@@ -15502,7 +15502,7 @@
         <v>2231</v>
       </c>
       <c r="F239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G239" t="s">
         <v>2963</v>
@@ -15554,7 +15554,7 @@
         <v>2233</v>
       </c>
       <c r="F241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G241" t="s">
         <v>2962</v>
@@ -15580,7 +15580,7 @@
         <v>2220</v>
       </c>
       <c r="F242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G242" t="s">
         <v>2964</v>
@@ -15684,7 +15684,7 @@
         <v>2235</v>
       </c>
       <c r="F246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G246" t="s">
         <v>2964</v>
@@ -15710,7 +15710,7 @@
         <v>2236</v>
       </c>
       <c r="F247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G247" t="s">
         <v>2964</v>
@@ -15840,7 +15840,7 @@
         <v>2238</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G252" t="s">
         <v>2964</v>
@@ -15866,7 +15866,7 @@
         <v>2239</v>
       </c>
       <c r="F253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G253" t="s">
         <v>2962</v>
@@ -15970,7 +15970,7 @@
         <v>2220</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G257" t="s">
         <v>2964</v>
@@ -16126,7 +16126,7 @@
         <v>2245</v>
       </c>
       <c r="F263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G263" t="s">
         <v>2964</v>
@@ -16204,7 +16204,7 @@
         <v>2220</v>
       </c>
       <c r="F266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G266" t="s">
         <v>2965</v>
@@ -16282,7 +16282,7 @@
         <v>2248</v>
       </c>
       <c r="F269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G269" t="s">
         <v>2964</v>
@@ -16386,7 +16386,7 @@
         <v>2230</v>
       </c>
       <c r="F273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G273" t="s">
         <v>2964</v>
@@ -16412,7 +16412,7 @@
         <v>2187</v>
       </c>
       <c r="F274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G274" t="s">
         <v>2964</v>
@@ -16438,7 +16438,7 @@
         <v>2251</v>
       </c>
       <c r="F275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G275" t="s">
         <v>2963</v>
@@ -16542,7 +16542,7 @@
         <v>2194</v>
       </c>
       <c r="F279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G279" t="s">
         <v>2964</v>
@@ -16568,7 +16568,7 @@
         <v>2254</v>
       </c>
       <c r="F280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G280" t="s">
         <v>2964</v>
@@ -16594,7 +16594,7 @@
         <v>2255</v>
       </c>
       <c r="F281">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G281" t="s">
         <v>2962</v>
@@ -16646,7 +16646,7 @@
         <v>2257</v>
       </c>
       <c r="F283">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G283" t="s">
         <v>2962</v>
@@ -16672,7 +16672,7 @@
         <v>2258</v>
       </c>
       <c r="F284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G284" t="s">
         <v>2962</v>
@@ -16724,7 +16724,7 @@
         <v>2260</v>
       </c>
       <c r="F286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G286" t="s">
         <v>2965</v>
@@ -16958,7 +16958,7 @@
         <v>2269</v>
       </c>
       <c r="F295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G295" t="s">
         <v>2962</v>
@@ -16984,7 +16984,7 @@
         <v>2270</v>
       </c>
       <c r="F296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G296" t="s">
         <v>2962</v>
@@ -17010,7 +17010,7 @@
         <v>2271</v>
       </c>
       <c r="F297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G297" t="s">
         <v>2964</v>
@@ -17036,7 +17036,7 @@
         <v>2272</v>
       </c>
       <c r="F298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G298" t="s">
         <v>2964</v>
@@ -17062,7 +17062,7 @@
         <v>2273</v>
       </c>
       <c r="F299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G299" t="s">
         <v>2964</v>
@@ -17088,7 +17088,7 @@
         <v>2274</v>
       </c>
       <c r="F300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G300" t="s">
         <v>2964</v>
@@ -17114,7 +17114,7 @@
         <v>2275</v>
       </c>
       <c r="F301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G301" t="s">
         <v>2964</v>
@@ -17374,7 +17374,7 @@
         <v>2285</v>
       </c>
       <c r="F311">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G311" t="s">
         <v>2964</v>
@@ -17400,7 +17400,7 @@
         <v>2286</v>
       </c>
       <c r="F312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G312" t="s">
         <v>2962</v>
@@ -17426,7 +17426,7 @@
         <v>2287</v>
       </c>
       <c r="F313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G313" t="s">
         <v>2963</v>
@@ -17478,7 +17478,7 @@
         <v>2289</v>
       </c>
       <c r="F315">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G315" t="s">
         <v>2965</v>
@@ -17530,7 +17530,7 @@
         <v>2190</v>
       </c>
       <c r="F317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G317" t="s">
         <v>2962</v>
@@ -17556,7 +17556,7 @@
         <v>2235</v>
       </c>
       <c r="F318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G318" t="s">
         <v>2964</v>
@@ -17582,7 +17582,7 @@
         <v>2290</v>
       </c>
       <c r="F319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G319" t="s">
         <v>2964</v>
@@ -17608,7 +17608,7 @@
         <v>2291</v>
       </c>
       <c r="F320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G320" t="s">
         <v>2964</v>
@@ -17634,7 +17634,7 @@
         <v>2292</v>
       </c>
       <c r="F321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G321" t="s">
         <v>2964</v>
@@ -17660,7 +17660,7 @@
         <v>2293</v>
       </c>
       <c r="F322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G322" t="s">
         <v>2964</v>
@@ -17738,7 +17738,7 @@
         <v>2296</v>
       </c>
       <c r="F325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G325" t="s">
         <v>2964</v>
@@ -17790,7 +17790,7 @@
         <v>2297</v>
       </c>
       <c r="F327">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G327" t="s">
         <v>2964</v>
@@ -17816,7 +17816,7 @@
         <v>2298</v>
       </c>
       <c r="F328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G328" t="s">
         <v>2964</v>
@@ -17842,7 +17842,7 @@
         <v>2299</v>
       </c>
       <c r="F329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G329" t="s">
         <v>2964</v>
@@ -17894,7 +17894,7 @@
         <v>2248</v>
       </c>
       <c r="F331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G331" t="s">
         <v>2964</v>
@@ -17946,7 +17946,7 @@
         <v>2302</v>
       </c>
       <c r="F333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G333" t="s">
         <v>2965</v>
@@ -17972,7 +17972,7 @@
         <v>2303</v>
       </c>
       <c r="F334">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G334" t="s">
         <v>2962</v>
@@ -17998,7 +17998,7 @@
         <v>2304</v>
       </c>
       <c r="F335">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G335" t="s">
         <v>2964</v>
@@ -18310,7 +18310,7 @@
         <v>2312</v>
       </c>
       <c r="F347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G347" t="s">
         <v>2963</v>
@@ -18388,7 +18388,7 @@
         <v>2270</v>
       </c>
       <c r="F350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G350" t="s">
         <v>2964</v>
@@ -18492,7 +18492,7 @@
         <v>2236</v>
       </c>
       <c r="F354">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G354" t="s">
         <v>2962</v>
@@ -18518,7 +18518,7 @@
         <v>2317</v>
       </c>
       <c r="F355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G355" t="s">
         <v>2964</v>
@@ -18544,7 +18544,7 @@
         <v>2318</v>
       </c>
       <c r="F356">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G356" t="s">
         <v>2962</v>
@@ -18596,7 +18596,7 @@
         <v>2320</v>
       </c>
       <c r="F358">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G358" t="s">
         <v>2963</v>
@@ -18648,7 +18648,7 @@
         <v>2321</v>
       </c>
       <c r="F360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G360" t="s">
         <v>2964</v>
@@ -18700,7 +18700,7 @@
         <v>2323</v>
       </c>
       <c r="F362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G362" t="s">
         <v>2963</v>
@@ -18778,7 +18778,7 @@
         <v>2325</v>
       </c>
       <c r="F365">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G365" t="s">
         <v>2962</v>
@@ -18882,7 +18882,7 @@
         <v>2297</v>
       </c>
       <c r="F369">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G369" t="s">
         <v>2962</v>
@@ -18960,7 +18960,7 @@
         <v>2232</v>
       </c>
       <c r="F372">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G372" t="s">
         <v>2964</v>
@@ -19064,7 +19064,7 @@
         <v>2331</v>
       </c>
       <c r="F376">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G376" t="s">
         <v>2965</v>
@@ -19090,7 +19090,7 @@
         <v>2332</v>
       </c>
       <c r="F377">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G377" t="s">
         <v>2962</v>
@@ -19142,7 +19142,7 @@
         <v>2333</v>
       </c>
       <c r="F379">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G379" t="s">
         <v>2962</v>
@@ -19194,7 +19194,7 @@
         <v>2334</v>
       </c>
       <c r="F381">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G381" t="s">
         <v>2963</v>
@@ -19246,7 +19246,7 @@
         <v>2336</v>
       </c>
       <c r="F383">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G383" t="s">
         <v>2962</v>
@@ -19272,7 +19272,7 @@
         <v>2177</v>
       </c>
       <c r="F384">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G384" t="s">
         <v>2965</v>
